--- a/data/larval_pi_curves/PAR_worksheet.xlsx
+++ b/data/larval_pi_curves/PAR_worksheet.xlsx
@@ -8,28 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/larval_symbiont_TPC/data/larval_pi_curves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD84C08-02A7-CB4A-97A7-ED259A537925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CD506-A1CC-1E47-B947-F336CE5AF745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{398F8A14-8E3D-7B41-9975-09624369AC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$11</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1459,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DA23C-4617-B845-8369-81020F50FAD5}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,7 +1523,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N14" si="0">M6*0.0603</f>
+        <f t="shared" ref="N6:N16" si="0">M6*0.0603</f>
         <v>1.5075000000000001</v>
       </c>
       <c r="O6" s="3">
@@ -1669,6 +1655,22 @@
       <c r="O14" s="3">
         <v>84</v>
       </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>1660</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>100.098</v>
+      </c>
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/larval_pi_curves/PAR_worksheet.xlsx
+++ b/data/larval_pi_curves/PAR_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/larval_symbiont_TPC/data/larval_pi_curves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CD506-A1CC-1E47-B947-F336CE5AF745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD794DB-E904-5C4E-AA67-87929FCDCBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{398F8A14-8E3D-7B41-9975-09624369AC0B}"/>
   </bookViews>
@@ -1448,7 +1448,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1669,8 +1669,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="M16" s="3">
+        <v>500</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>30.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
